--- a/base_def.xlsx
+++ b/base_def.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomasmarotta/Documents/GitHub/HW1-Espacial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44D87B58-0E03-EE44-91BC-8895D5DD2804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6531FE02-5AA9-BA42-8A46-F0377CA7A76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16340" xr2:uid="{7A928F01-58E4-084C-B838-4378162FEF1A}"/>
   </bookViews>
@@ -7853,7 +7853,9 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0B8066-6E27-644E-8EC8-D6A569AED0BB}">
   <dimension ref="A1:A2322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
